--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -440,7 +440,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,28 +762,84 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="A6" s="9">
+        <v>45061</v>
+      </c>
+      <c r="B6" s="7">
+        <v>9653.8106000000007</v>
+      </c>
+      <c r="C6" s="7">
+        <v>9596.4578999999994</v>
+      </c>
+      <c r="D6" s="10">
+        <f>C6/B6</f>
+        <v>0.99405906098882846</v>
+      </c>
+      <c r="E6" s="7">
+        <v>9662.1962000000003</v>
+      </c>
+      <c r="F6" s="7">
+        <v>9731.0439999999999</v>
+      </c>
+      <c r="G6" s="10">
+        <f>F6/E6</f>
+        <v>1.0071254814718003</v>
+      </c>
+      <c r="H6" s="7">
+        <v>167.98</v>
+      </c>
+      <c r="I6" s="7">
+        <v>164.89</v>
+      </c>
+      <c r="J6" s="10">
+        <f>I6/H6</f>
+        <v>0.98160495297059169</v>
+      </c>
+      <c r="K6" s="5">
+        <v>9596.4578999999994</v>
+      </c>
+      <c r="L6" s="5">
+        <v>9576.1093000000001</v>
+      </c>
+      <c r="M6" s="10">
+        <f>L6/K6</f>
+        <v>0.99787957179492248</v>
+      </c>
+      <c r="N6" s="5">
+        <v>9731.0439999999999</v>
+      </c>
+      <c r="O6" s="5">
+        <v>9765.9004999999997</v>
+      </c>
+      <c r="P6" s="10">
+        <f>O6/N6</f>
+        <v>1.0035819897638938</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>164.89</v>
+      </c>
+      <c r="R6" s="5">
+        <v>166.57</v>
+      </c>
+      <c r="S6" s="10">
+        <f>R6/Q6</f>
+        <v>1.0101886105888775</v>
+      </c>
+      <c r="T6" s="12">
+        <f>D6*M6</f>
+        <v>0.99195123011839492</v>
+      </c>
+      <c r="U6" s="12">
+        <f>G6*P6</f>
+        <v>1.0107329946373889</v>
+      </c>
+      <c r="V6" s="12">
+        <f>J6*S6</f>
+        <v>0.9916061435885225</v>
+      </c>
+      <c r="W6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,28 +842,84 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="A7" s="9">
+        <v>45062</v>
+      </c>
+      <c r="B7" s="7">
+        <v>9575.7260000000006</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9593.6489999999994</v>
+      </c>
+      <c r="D7" s="10">
+        <f>C7/B7</f>
+        <v>1.0018717118681131</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9765.9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>9896.4189999999999</v>
+      </c>
+      <c r="G7" s="10">
+        <f>F7/E7</f>
+        <v>1.013364769248098</v>
+      </c>
+      <c r="H7" s="7">
+        <v>165.67</v>
+      </c>
+      <c r="I7" s="7">
+        <v>167.95</v>
+      </c>
+      <c r="J7" s="10">
+        <f>I7/H7</f>
+        <v>1.013762298545301</v>
+      </c>
+      <c r="K7" s="5">
+        <v>9593.6489999999994</v>
+      </c>
+      <c r="L7" s="5">
+        <v>9574.7000000000007</v>
+      </c>
+      <c r="M7" s="10">
+        <f>L7/K7</f>
+        <v>0.99802483914097773</v>
+      </c>
+      <c r="N7" s="5">
+        <v>9896.4189999999999</v>
+      </c>
+      <c r="O7" s="5">
+        <v>9965.732</v>
+      </c>
+      <c r="P7" s="10">
+        <f>O7/N7</f>
+        <v>1.0070038465428757</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>168.95</v>
+      </c>
+      <c r="R7" s="5">
+        <v>167.29</v>
+      </c>
+      <c r="S7" s="10">
+        <f>R7/Q7</f>
+        <v>0.9901746078721515</v>
+      </c>
+      <c r="T7" s="12">
+        <f>D7*M7</f>
+        <v>0.99989285407706952</v>
+      </c>
+      <c r="U7" s="12">
+        <f>G7*P7</f>
+        <v>1.0204622205838683</v>
+      </c>
+      <c r="V7" s="12">
+        <f>J7*S7</f>
+        <v>1.0038016864376644</v>
+      </c>
+      <c r="W7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>

--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,28 +922,84 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="A8" s="9">
+        <v>45063</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9575.2719899999993</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9765.8433000000005</v>
+      </c>
+      <c r="D8" s="7">
+        <f>C8/B8</f>
+        <v>1.0199024435231736</v>
+      </c>
+      <c r="E8" s="7">
+        <v>9965.73236</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10079.142400000001</v>
+      </c>
+      <c r="G8" s="7">
+        <f>F8/E8</f>
+        <v>1.011380000576295</v>
+      </c>
+      <c r="H8" s="7">
+        <v>167.84</v>
+      </c>
+      <c r="I8" s="7">
+        <v>173.77709999999999</v>
+      </c>
+      <c r="J8" s="7">
+        <f>I8/H8</f>
+        <v>1.0353735700667301</v>
+      </c>
+      <c r="K8" s="5">
+        <v>9765.8433000000005</v>
+      </c>
+      <c r="L8" s="5">
+        <v>9702.3841990000001</v>
+      </c>
+      <c r="M8" s="5">
+        <f>L8/K8</f>
+        <v>0.99350193331486281</v>
+      </c>
+      <c r="N8" s="5">
+        <v>9965.73236</v>
+      </c>
+      <c r="O8" s="5">
+        <v>10117.81789</v>
+      </c>
+      <c r="P8" s="5">
+        <f>O8/N8</f>
+        <v>1.0152608483256518</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>173.77709999999999</v>
+      </c>
+      <c r="R8" s="5">
+        <v>173.54499999999999</v>
+      </c>
+      <c r="S8" s="5">
+        <f>R8/Q8</f>
+        <v>0.99866438098000254</v>
+      </c>
+      <c r="T8" s="12">
+        <f>D8*M8</f>
+        <v>1.0132750494328258</v>
+      </c>
+      <c r="U8" s="12">
+        <f>G8*P8</f>
+        <v>1.0268145173646874</v>
+      </c>
+      <c r="V8" s="12">
+        <f>J8*S8</f>
+        <v>1.0339907054337463</v>
+      </c>
+      <c r="W8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1421,9 +1477,32 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
+      <c r="T28" s="12">
+        <f>PRODUCT(T6:T27)</f>
+        <v>1.0050117372840006</v>
+      </c>
+      <c r="U28" s="12">
+        <f t="shared" ref="U28:V28" si="0">PRODUCT(U6:U27)</f>
+        <v>1.0590717271585244</v>
+      </c>
+      <c r="V28" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0292094488820269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T29" s="1">
+        <f>SUM(T6:T27)-COUNT(T6:T27) + 1</f>
+        <v>1.0051191336282903</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" ref="U29:V29" si="1">SUM(U6:U27)-COUNT(U6:U27) + 1</f>
+        <v>1.0580097325859446</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0293985354599333</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1438,5 +1517,6 @@
     <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>paper trade</t>
+  </si>
+  <si>
+    <t>macd=6/13/9</t>
   </si>
 </sst>
 </file>
@@ -439,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +934,7 @@
       <c r="C8" s="7">
         <v>9765.8433000000005</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="10">
         <f>C8/B8</f>
         <v>1.0199024435231736</v>
       </c>
@@ -941,7 +944,7 @@
       <c r="F8" s="7">
         <v>10079.142400000001</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="10">
         <f>F8/E8</f>
         <v>1.011380000576295</v>
       </c>
@@ -951,7 +954,7 @@
       <c r="I8" s="7">
         <v>173.77709999999999</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="10">
         <f>I8/H8</f>
         <v>1.0353735700667301</v>
       </c>
@@ -961,7 +964,7 @@
       <c r="L8" s="5">
         <v>9702.3841990000001</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="10">
         <f>L8/K8</f>
         <v>0.99350193331486281</v>
       </c>
@@ -971,7 +974,7 @@
       <c r="O8" s="5">
         <v>10117.81789</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="10">
         <f>O8/N8</f>
         <v>1.0152608483256518</v>
       </c>
@@ -981,7 +984,7 @@
       <c r="R8" s="5">
         <v>173.54499999999999</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="10">
         <f>R8/Q8</f>
         <v>0.99866438098000254</v>
       </c>
@@ -1002,7 +1005,9 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1026,28 +1031,84 @@
       <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="A10" s="9">
+        <v>45064</v>
+      </c>
+      <c r="B10" s="7">
+        <v>10163.43</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10250.19875</v>
+      </c>
+      <c r="D10" s="10">
+        <f>C10/B10</f>
+        <v>1.0085373491035998</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10094.9738</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10109.772000000001</v>
+      </c>
+      <c r="G10" s="10">
+        <f>F10/E10</f>
+        <v>1.0014658978114437</v>
+      </c>
+      <c r="H10" s="7">
+        <v>174.41</v>
+      </c>
+      <c r="I10" s="7">
+        <v>174.18</v>
+      </c>
+      <c r="J10" s="10">
+        <f>I10/H10</f>
+        <v>0.99868126827590165</v>
+      </c>
+      <c r="K10" s="5">
+        <v>10251.149600000001</v>
+      </c>
+      <c r="L10" s="5">
+        <v>10307.591200000001</v>
+      </c>
+      <c r="M10" s="10">
+        <f>L10/K10</f>
+        <v>1.0055058800429564</v>
+      </c>
+      <c r="N10" s="5">
+        <v>10115.866760000001</v>
+      </c>
+      <c r="O10" s="5">
+        <v>10169.2811</v>
+      </c>
+      <c r="P10" s="10">
+        <f>O10/N10</f>
+        <v>1.0052802534144885</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>174.17500000000001</v>
+      </c>
+      <c r="R10" s="5">
+        <v>175.18</v>
+      </c>
+      <c r="S10" s="10">
+        <f>R10/Q10</f>
+        <v>1.0057700588488589</v>
+      </c>
+      <c r="T10" s="12">
+        <f>D10*M10</f>
+        <v>1.0140902347666054</v>
+      </c>
+      <c r="U10" s="12">
+        <f>G10*P10</f>
+        <v>1.0067538915378562</v>
+      </c>
+      <c r="V10" s="12">
+        <f>J10*S10</f>
+        <v>1.0044437179651067</v>
+      </c>
+      <c r="W10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1479,29 +1540,29 @@
       <c r="S28" s="5"/>
       <c r="T28" s="12">
         <f>PRODUCT(T6:T27)</f>
-        <v>1.0050117372840006</v>
+        <v>1.0191725886055261</v>
       </c>
       <c r="U28" s="12">
         <f t="shared" ref="U28:V28" si="0">PRODUCT(U6:U27)</f>
-        <v>1.0590717271585244</v>
+        <v>1.0662245827345631</v>
       </c>
       <c r="V28" s="12">
         <f t="shared" si="0"/>
-        <v>1.0292094488820269</v>
+        <v>1.0337829653998816</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T29" s="1">
         <f>SUM(T6:T27)-COUNT(T6:T27) + 1</f>
-        <v>1.0051191336282903</v>
+        <v>1.019209368394896</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" ref="U29:V29" si="1">SUM(U6:U27)-COUNT(U6:U27) + 1</f>
-        <v>1.0580097325859446</v>
+        <v>1.0647636241238008</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="1"/>
-        <v>1.0293985354599333</v>
+        <v>1.03384225342504</v>
       </c>
     </row>
   </sheetData>

--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,28 +1111,84 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="A11" s="9">
+        <v>45065</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10307.3375</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10442.715799899999</v>
+      </c>
+      <c r="D11" s="10">
+        <f>C11/B11</f>
+        <v>1.0131341677615582</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10169.28112</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10243.82466</v>
+      </c>
+      <c r="G11" s="10">
+        <f>F11/E11</f>
+        <v>1.0073302664289017</v>
+      </c>
+      <c r="H11" s="7">
+        <v>177.08500000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>180.39500000000001</v>
+      </c>
+      <c r="J11" s="10">
+        <f>I11/H11</f>
+        <v>1.0186915887850467</v>
+      </c>
+      <c r="K11" s="5">
+        <v>10442.715799899999</v>
+      </c>
+      <c r="L11" s="5">
+        <v>10472.830400000001</v>
+      </c>
+      <c r="M11" s="10">
+        <f>L11/K11</f>
+        <v>1.0028837900673586</v>
+      </c>
+      <c r="N11" s="5">
+        <v>10243.82466</v>
+      </c>
+      <c r="O11" s="5">
+        <v>10161.29516</v>
+      </c>
+      <c r="P11" s="10">
+        <f>O11/N11</f>
+        <v>0.99194348763872731</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>180.39500000000001</v>
+      </c>
+      <c r="R11" s="5">
+        <v>179.36</v>
+      </c>
+      <c r="S11" s="10">
+        <f>R11/Q11</f>
+        <v>0.99426259042656395</v>
+      </c>
+      <c r="T11" s="12">
+        <f>D11*M11</f>
+        <v>1.0160558340114505</v>
+      </c>
+      <c r="U11" s="12">
+        <f>G11*P11</f>
+        <v>0.99921469768553306</v>
+      </c>
+      <c r="V11" s="12">
+        <f>J11*S11</f>
+        <v>1.0128469379111726</v>
+      </c>
+      <c r="W11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1540,29 +1596,29 @@
       <c r="S28" s="5"/>
       <c r="T28" s="12">
         <f>PRODUCT(T6:T27)</f>
-        <v>1.0191725886055261</v>
+        <v>1.0355362545171967</v>
       </c>
       <c r="U28" s="12">
         <f t="shared" ref="U28:V28" si="0">PRODUCT(U6:U27)</f>
-        <v>1.0662245827345631</v>
+        <v>1.0653872741020001</v>
       </c>
       <c r="V28" s="12">
         <f t="shared" si="0"/>
-        <v>1.0337829653998816</v>
+        <v>1.0470639109700017</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T29" s="1">
         <f>SUM(T6:T27)-COUNT(T6:T27) + 1</f>
-        <v>1.019209368394896</v>
+        <v>1.0352652024063467</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" ref="U29:V29" si="1">SUM(U6:U27)-COUNT(U6:U27) + 1</f>
-        <v>1.0647636241238008</v>
+        <v>1.0639783218093335</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="1"/>
-        <v>1.03384225342504</v>
+        <v>1.0466891913362124</v>
       </c>
     </row>
   </sheetData>

--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -443,7 +443,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,28 +1191,84 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="A12" s="9">
+        <v>45068</v>
+      </c>
+      <c r="B12" s="7">
+        <v>10473.2544</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10735.6129</v>
+      </c>
+      <c r="D12" s="10">
+        <f>C12/B12</f>
+        <v>1.0250503320152331</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10161.295166</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10196.519587999999</v>
+      </c>
+      <c r="G12" s="10">
+        <f>F12/E12</f>
+        <v>1.0034665287667128</v>
+      </c>
+      <c r="H12" s="7">
+        <v>181.09</v>
+      </c>
+      <c r="I12" s="7">
+        <v>184.64</v>
+      </c>
+      <c r="J12" s="10">
+        <f>I12/H12</f>
+        <v>1.0196035120658236</v>
+      </c>
+      <c r="K12" s="5">
+        <v>10735.6129</v>
+      </c>
+      <c r="L12" s="5">
+        <v>10992.370199999999</v>
+      </c>
+      <c r="M12" s="10">
+        <f>L12/K12</f>
+        <v>1.0239164081633383</v>
+      </c>
+      <c r="N12" s="5">
+        <v>10196.519587999999</v>
+      </c>
+      <c r="O12" s="5">
+        <v>10299.120339999999</v>
+      </c>
+      <c r="P12" s="10">
+        <f>O12/N12</f>
+        <v>1.0100623306918126</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>184.64</v>
+      </c>
+      <c r="R12" s="5">
+        <v>188.29</v>
+      </c>
+      <c r="S12" s="10">
+        <f>R12/Q12</f>
+        <v>1.0197681975736568</v>
+      </c>
+      <c r="T12" s="12">
+        <f>D12*M12</f>
+        <v>1.0495658541436748</v>
+      </c>
+      <c r="U12" s="12">
+        <f>G12*P12</f>
+        <v>1.0135637408173288</v>
+      </c>
+      <c r="V12" s="12">
+        <f>J12*S12</f>
+        <v>1.0397592357391352</v>
+      </c>
+      <c r="W12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1596,29 +1652,29 @@
       <c r="S28" s="5"/>
       <c r="T28" s="12">
         <f>PRODUCT(T6:T27)</f>
-        <v>1.0355362545171967</v>
+        <v>1.0868634934690833</v>
       </c>
       <c r="U28" s="12">
         <f t="shared" ref="U28:V28" si="0">PRODUCT(U6:U27)</f>
-        <v>1.0653872741020001</v>
+        <v>1.0798379109580001</v>
       </c>
       <c r="V28" s="12">
         <f t="shared" si="0"/>
-        <v>1.0470639109700017</v>
+        <v>1.0886943718401989</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T29" s="1">
         <f>SUM(T6:T27)-COUNT(T6:T27) + 1</f>
-        <v>1.0352652024063467</v>
+        <v>1.084831056550021</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" ref="U29:V29" si="1">SUM(U6:U27)-COUNT(U6:U27) + 1</f>
-        <v>1.0639783218093335</v>
+        <v>1.0775420626266623</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="1"/>
-        <v>1.0466891913362124</v>
+        <v>1.0864484270753474</v>
       </c>
     </row>
   </sheetData>

--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,28 +1271,81 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
+      <c r="A13" s="9">
+        <v>45069</v>
+      </c>
+      <c r="B13" s="7">
+        <v>10991.8362</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11265.43199999</v>
+      </c>
+      <c r="D13" s="10">
+        <f>C13/B13</f>
+        <v>1.0248908185140169</v>
+      </c>
+      <c r="E13" s="7">
+        <v>10299.120348709999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10445.514524599999</v>
+      </c>
+      <c r="G13" s="10">
+        <f>F13/E13</f>
+        <v>1.0142142407247756</v>
+      </c>
+      <c r="H13" s="7">
+        <v>186.14500000000001</v>
+      </c>
+      <c r="I13" s="7">
+        <v>191.85</v>
+      </c>
+      <c r="J13" s="10">
+        <f>I13/H13</f>
+        <v>1.0306481506352574</v>
+      </c>
+      <c r="K13" s="5">
+        <v>11265.43199999</v>
+      </c>
+      <c r="L13" s="5">
+        <v>10989.084959899999</v>
+      </c>
+      <c r="M13" s="10">
+        <f>L13/K13</f>
+        <v>0.97546946800706391</v>
+      </c>
+      <c r="N13" s="5">
+        <v>10445.514524599999</v>
+      </c>
+      <c r="O13" s="5">
+        <v>10395.514717</v>
+      </c>
+      <c r="P13" s="10">
+        <f>O13/N13</f>
+        <v>0.99521327480017896</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>191.85</v>
+      </c>
+      <c r="R13" s="5">
+        <v>186.88919999999999</v>
+      </c>
+      <c r="S13" s="10">
+        <f>R13/Q13</f>
+        <v>0.97414229867083657</v>
+      </c>
+      <c r="T13" s="12">
+        <f>D13*M13</f>
+        <v>0.99974970150119236</v>
+      </c>
+      <c r="U13" s="12">
+        <f>G13*P13</f>
+        <v>1.009359475860681</v>
+      </c>
+      <c r="V13" s="12">
+        <f>J13*S13</f>
+        <v>1.0039979585806762</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1651,30 +1704,30 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="12">
-        <f>PRODUCT(T6:T27)</f>
-        <v>1.0868634934690833</v>
+        <f>PRODUCT(T10:T27)</f>
+        <v>1.0811728986416855</v>
       </c>
       <c r="U28" s="12">
-        <f t="shared" ref="U28:V28" si="0">PRODUCT(U6:U27)</f>
-        <v>1.0798379109580001</v>
+        <f t="shared" ref="U28:V28" si="0">PRODUCT(U10:U27)</f>
+        <v>1.0291509062784319</v>
       </c>
       <c r="V28" s="12">
         <f t="shared" si="0"/>
-        <v>1.0886943718401989</v>
+        <v>1.062025740273904</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T29" s="1">
-        <f>SUM(T6:T27)-COUNT(T6:T27) + 1</f>
-        <v>1.084831056550021</v>
+        <f>SUM(T10:T27)-COUNT(T10:T27) + 1</f>
+        <v>1.0794616244229234</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" ref="U29:V29" si="1">SUM(U6:U27)-COUNT(U6:U27) + 1</f>
-        <v>1.0775420626266623</v>
+        <f t="shared" ref="U29:V29" si="1">SUM(U10:U27)-COUNT(U10:U27) + 1</f>
+        <v>1.0288918059013987</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="1"/>
-        <v>1.0864484270753474</v>
+        <v>1.0610478501960907</v>
       </c>
     </row>
   </sheetData>

--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,30 +1346,89 @@
         <f>J13*S13</f>
         <v>1.0039979585806762</v>
       </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
+      <c r="A14" s="9">
+        <v>45070</v>
+      </c>
+      <c r="B14" s="7">
+        <v>10989.733141999999</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10935.846</v>
+      </c>
+      <c r="D14" s="10">
+        <f>C14/B14</f>
+        <v>0.99509659230995728</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10395.514717712</v>
+      </c>
+      <c r="F14" s="7">
+        <v>10231.955428192499</v>
+      </c>
+      <c r="G14" s="10">
+        <f>F14/E14</f>
+        <v>0.98426635967906173</v>
+      </c>
+      <c r="H14" s="7">
+        <v>181.73859999999999</v>
+      </c>
+      <c r="I14" s="7">
+        <v>179.1</v>
+      </c>
+      <c r="J14" s="10">
+        <f>I14/H14</f>
+        <v>0.98548134518478736</v>
+      </c>
+      <c r="K14" s="5">
+        <v>10935.846</v>
+      </c>
+      <c r="L14" s="5">
+        <v>11050.418925</v>
+      </c>
+      <c r="M14" s="10">
+        <f>L14/K14</f>
+        <v>1.0104768231922798</v>
+      </c>
+      <c r="N14" s="5">
+        <v>10231.955428192499</v>
+      </c>
+      <c r="O14" s="5">
+        <v>10361.750571364</v>
+      </c>
+      <c r="P14" s="10">
+        <f>O14/N14</f>
+        <v>1.0126852725348932</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>179.1</v>
+      </c>
+      <c r="R14" s="5">
+        <v>181.8999</v>
+      </c>
+      <c r="S14" s="5">
+        <f>R14/Q14</f>
+        <v>1.0156331658291458</v>
+      </c>
+      <c r="T14" s="12">
+        <f>D14*M14</f>
+        <v>1.0055220433668288</v>
+      </c>
+      <c r="U14" s="12">
+        <f>G14*P14</f>
+        <v>0.9967520466985178</v>
+      </c>
+      <c r="V14" s="12">
+        <f>J14*S14</f>
+        <v>1.0008875384755909</v>
+      </c>
+      <c r="W14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1705,29 +1764,29 @@
       <c r="S28" s="5"/>
       <c r="T28" s="12">
         <f>PRODUCT(T10:T27)</f>
-        <v>1.0811728986416855</v>
+        <v>1.087143182275025</v>
       </c>
       <c r="U28" s="12">
         <f t="shared" ref="U28:V28" si="0">PRODUCT(U10:U27)</f>
-        <v>1.0291509062784319</v>
+        <v>1.0258082721946615</v>
       </c>
       <c r="V28" s="12">
         <f t="shared" si="0"/>
-        <v>1.062025740273904</v>
+        <v>1.062968328980465</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T29" s="1">
         <f>SUM(T10:T27)-COUNT(T10:T27) + 1</f>
-        <v>1.0794616244229234</v>
+        <v>1.0849836677897517</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" ref="U29:V29" si="1">SUM(U10:U27)-COUNT(U10:U27) + 1</f>
-        <v>1.0288918059013987</v>
+        <v>1.0256438525999165</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="1"/>
-        <v>1.0610478501960907</v>
+        <v>1.0619353886716816</v>
       </c>
     </row>
   </sheetData>

--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,28 +1431,84 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+      <c r="A15" s="9">
+        <v>45071</v>
+      </c>
+      <c r="B15" s="7">
+        <v>11051.222</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10914.165000000001</v>
+      </c>
+      <c r="D15" s="10">
+        <f>C15/B15</f>
+        <v>0.98759802309645039</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10361.7505713642</v>
+      </c>
+      <c r="F15" s="7">
+        <v>10155.367160395001</v>
+      </c>
+      <c r="G15" s="10">
+        <f>F15/E15</f>
+        <v>0.98008218692895754</v>
+      </c>
+      <c r="H15" s="7">
+        <v>186.55</v>
+      </c>
+      <c r="I15" s="7">
+        <v>184.05</v>
+      </c>
+      <c r="J15" s="10">
+        <f>I15/H15</f>
+        <v>0.98659876708657201</v>
+      </c>
+      <c r="K15" s="5">
+        <v>10914.165000000001</v>
+      </c>
+      <c r="L15" s="5">
+        <v>10911.772238</v>
+      </c>
+      <c r="M15" s="10">
+        <f>L15/K15</f>
+        <v>0.9997807654548011</v>
+      </c>
+      <c r="N15" s="5">
+        <v>10155.367160395001</v>
+      </c>
+      <c r="O15" s="5">
+        <v>10164.2247670003</v>
+      </c>
+      <c r="P15" s="10">
+        <f>O15/N15</f>
+        <v>1.0008722093908966</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>184.05</v>
+      </c>
+      <c r="R15" s="5">
+        <v>182.99</v>
+      </c>
+      <c r="S15" s="10">
+        <f>R15/Q15</f>
+        <v>0.99424069546318938</v>
+      </c>
+      <c r="T15" s="12">
+        <f>D15*M15</f>
+        <v>0.98738150749301756</v>
+      </c>
+      <c r="U15" s="12">
+        <f>G15*P15</f>
+        <v>0.98093702381624748</v>
+      </c>
+      <c r="V15" s="12">
+        <f>J15*S15</f>
+        <v>0.98091664433127856</v>
+      </c>
+      <c r="W15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1764,29 +1820,29 @@
       <c r="S28" s="5"/>
       <c r="T28" s="12">
         <f>PRODUCT(T10:T27)</f>
-        <v>1.087143182275025</v>
+        <v>1.0734250741754705</v>
       </c>
       <c r="U28" s="12">
         <f t="shared" ref="U28:V28" si="0">PRODUCT(U10:U27)</f>
-        <v>1.0258082721946615</v>
+        <v>1.0062533135327183</v>
       </c>
       <c r="V28" s="12">
         <f t="shared" si="0"/>
-        <v>1.062968328980465</v>
+        <v>1.0426833262939443</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T29" s="1">
         <f>SUM(T10:T27)-COUNT(T10:T27) + 1</f>
-        <v>1.0849836677897517</v>
+        <v>1.0723651752827692</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" ref="U29:V29" si="1">SUM(U10:U27)-COUNT(U10:U27) + 1</f>
-        <v>1.0256438525999165</v>
+        <v>1.0065808764161641</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="1"/>
-        <v>1.0619353886716816</v>
+        <v>1.0428520330029603</v>
       </c>
     </row>
   </sheetData>

--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="H5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1041,7 @@
         <v>10250.19875</v>
       </c>
       <c r="D10" s="10">
-        <f>C10/B10</f>
+        <f t="shared" ref="D10:D16" si="0">C10/B10</f>
         <v>1.0085373491035998</v>
       </c>
       <c r="E10" s="7">
@@ -1051,7 +1051,7 @@
         <v>10109.772000000001</v>
       </c>
       <c r="G10" s="10">
-        <f>F10/E10</f>
+        <f t="shared" ref="G10:G16" si="1">F10/E10</f>
         <v>1.0014658978114437</v>
       </c>
       <c r="H10" s="7">
@@ -1061,7 +1061,7 @@
         <v>174.18</v>
       </c>
       <c r="J10" s="10">
-        <f>I10/H10</f>
+        <f t="shared" ref="J10:J16" si="2">I10/H10</f>
         <v>0.99868126827590165</v>
       </c>
       <c r="K10" s="5">
@@ -1071,7 +1071,7 @@
         <v>10307.591200000001</v>
       </c>
       <c r="M10" s="10">
-        <f>L10/K10</f>
+        <f t="shared" ref="M10:M16" si="3">L10/K10</f>
         <v>1.0055058800429564</v>
       </c>
       <c r="N10" s="5">
@@ -1081,7 +1081,7 @@
         <v>10169.2811</v>
       </c>
       <c r="P10" s="10">
-        <f>O10/N10</f>
+        <f t="shared" ref="P10:P16" si="4">O10/N10</f>
         <v>1.0052802534144885</v>
       </c>
       <c r="Q10" s="5">
@@ -1091,19 +1091,19 @@
         <v>175.18</v>
       </c>
       <c r="S10" s="10">
-        <f>R10/Q10</f>
+        <f t="shared" ref="S10:S16" si="5">R10/Q10</f>
         <v>1.0057700588488589</v>
       </c>
       <c r="T10" s="12">
-        <f>D10*M10</f>
+        <f t="shared" ref="T10:T16" si="6">D10*M10</f>
         <v>1.0140902347666054</v>
       </c>
       <c r="U10" s="12">
-        <f>G10*P10</f>
+        <f t="shared" ref="U10:U16" si="7">G10*P10</f>
         <v>1.0067538915378562</v>
       </c>
       <c r="V10" s="12">
-        <f>J10*S10</f>
+        <f t="shared" ref="V10:V16" si="8">J10*S10</f>
         <v>1.0044437179651067</v>
       </c>
       <c r="W10" t="s">
@@ -1121,7 +1121,7 @@
         <v>10442.715799899999</v>
       </c>
       <c r="D11" s="10">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>1.0131341677615582</v>
       </c>
       <c r="E11" s="7">
@@ -1131,7 +1131,7 @@
         <v>10243.82466</v>
       </c>
       <c r="G11" s="10">
-        <f>F11/E11</f>
+        <f t="shared" si="1"/>
         <v>1.0073302664289017</v>
       </c>
       <c r="H11" s="7">
@@ -1141,7 +1141,7 @@
         <v>180.39500000000001</v>
       </c>
       <c r="J11" s="10">
-        <f>I11/H11</f>
+        <f t="shared" si="2"/>
         <v>1.0186915887850467</v>
       </c>
       <c r="K11" s="5">
@@ -1151,7 +1151,7 @@
         <v>10472.830400000001</v>
       </c>
       <c r="M11" s="10">
-        <f>L11/K11</f>
+        <f t="shared" si="3"/>
         <v>1.0028837900673586</v>
       </c>
       <c r="N11" s="5">
@@ -1161,7 +1161,7 @@
         <v>10161.29516</v>
       </c>
       <c r="P11" s="10">
-        <f>O11/N11</f>
+        <f t="shared" si="4"/>
         <v>0.99194348763872731</v>
       </c>
       <c r="Q11" s="5">
@@ -1171,19 +1171,19 @@
         <v>179.36</v>
       </c>
       <c r="S11" s="10">
-        <f>R11/Q11</f>
+        <f t="shared" si="5"/>
         <v>0.99426259042656395</v>
       </c>
       <c r="T11" s="12">
-        <f>D11*M11</f>
+        <f t="shared" si="6"/>
         <v>1.0160558340114505</v>
       </c>
       <c r="U11" s="12">
-        <f>G11*P11</f>
+        <f t="shared" si="7"/>
         <v>0.99921469768553306</v>
       </c>
       <c r="V11" s="12">
-        <f>J11*S11</f>
+        <f t="shared" si="8"/>
         <v>1.0128469379111726</v>
       </c>
       <c r="W11" t="s">
@@ -1201,7 +1201,7 @@
         <v>10735.6129</v>
       </c>
       <c r="D12" s="10">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>1.0250503320152331</v>
       </c>
       <c r="E12" s="7">
@@ -1211,7 +1211,7 @@
         <v>10196.519587999999</v>
       </c>
       <c r="G12" s="10">
-        <f>F12/E12</f>
+        <f t="shared" si="1"/>
         <v>1.0034665287667128</v>
       </c>
       <c r="H12" s="7">
@@ -1221,7 +1221,7 @@
         <v>184.64</v>
       </c>
       <c r="J12" s="10">
-        <f>I12/H12</f>
+        <f t="shared" si="2"/>
         <v>1.0196035120658236</v>
       </c>
       <c r="K12" s="5">
@@ -1231,7 +1231,7 @@
         <v>10992.370199999999</v>
       </c>
       <c r="M12" s="10">
-        <f>L12/K12</f>
+        <f t="shared" si="3"/>
         <v>1.0239164081633383</v>
       </c>
       <c r="N12" s="5">
@@ -1241,7 +1241,7 @@
         <v>10299.120339999999</v>
       </c>
       <c r="P12" s="10">
-        <f>O12/N12</f>
+        <f t="shared" si="4"/>
         <v>1.0100623306918126</v>
       </c>
       <c r="Q12" s="5">
@@ -1251,19 +1251,19 @@
         <v>188.29</v>
       </c>
       <c r="S12" s="10">
-        <f>R12/Q12</f>
+        <f t="shared" si="5"/>
         <v>1.0197681975736568</v>
       </c>
       <c r="T12" s="12">
-        <f>D12*M12</f>
+        <f t="shared" si="6"/>
         <v>1.0495658541436748</v>
       </c>
       <c r="U12" s="12">
-        <f>G12*P12</f>
+        <f t="shared" si="7"/>
         <v>1.0135637408173288</v>
       </c>
       <c r="V12" s="12">
-        <f>J12*S12</f>
+        <f t="shared" si="8"/>
         <v>1.0397592357391352</v>
       </c>
       <c r="W12" t="s">
@@ -1281,7 +1281,7 @@
         <v>11265.43199999</v>
       </c>
       <c r="D13" s="10">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>1.0248908185140169</v>
       </c>
       <c r="E13" s="7">
@@ -1291,7 +1291,7 @@
         <v>10445.514524599999</v>
       </c>
       <c r="G13" s="10">
-        <f>F13/E13</f>
+        <f t="shared" si="1"/>
         <v>1.0142142407247756</v>
       </c>
       <c r="H13" s="7">
@@ -1301,7 +1301,7 @@
         <v>191.85</v>
       </c>
       <c r="J13" s="10">
-        <f>I13/H13</f>
+        <f t="shared" si="2"/>
         <v>1.0306481506352574</v>
       </c>
       <c r="K13" s="5">
@@ -1311,7 +1311,7 @@
         <v>10989.084959899999</v>
       </c>
       <c r="M13" s="10">
-        <f>L13/K13</f>
+        <f t="shared" si="3"/>
         <v>0.97546946800706391</v>
       </c>
       <c r="N13" s="5">
@@ -1321,7 +1321,7 @@
         <v>10395.514717</v>
       </c>
       <c r="P13" s="10">
-        <f>O13/N13</f>
+        <f t="shared" si="4"/>
         <v>0.99521327480017896</v>
       </c>
       <c r="Q13" s="5">
@@ -1331,19 +1331,19 @@
         <v>186.88919999999999</v>
       </c>
       <c r="S13" s="10">
-        <f>R13/Q13</f>
+        <f t="shared" si="5"/>
         <v>0.97414229867083657</v>
       </c>
       <c r="T13" s="12">
-        <f>D13*M13</f>
+        <f t="shared" si="6"/>
         <v>0.99974970150119236</v>
       </c>
       <c r="U13" s="12">
-        <f>G13*P13</f>
+        <f t="shared" si="7"/>
         <v>1.009359475860681</v>
       </c>
       <c r="V13" s="12">
-        <f>J13*S13</f>
+        <f t="shared" si="8"/>
         <v>1.0039979585806762</v>
       </c>
       <c r="W13" t="s">
@@ -1361,7 +1361,7 @@
         <v>10935.846</v>
       </c>
       <c r="D14" s="10">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>0.99509659230995728</v>
       </c>
       <c r="E14" s="7">
@@ -1371,7 +1371,7 @@
         <v>10231.955428192499</v>
       </c>
       <c r="G14" s="10">
-        <f>F14/E14</f>
+        <f t="shared" si="1"/>
         <v>0.98426635967906173</v>
       </c>
       <c r="H14" s="7">
@@ -1381,7 +1381,7 @@
         <v>179.1</v>
       </c>
       <c r="J14" s="10">
-        <f>I14/H14</f>
+        <f t="shared" si="2"/>
         <v>0.98548134518478736</v>
       </c>
       <c r="K14" s="5">
@@ -1391,7 +1391,7 @@
         <v>11050.418925</v>
       </c>
       <c r="M14" s="10">
-        <f>L14/K14</f>
+        <f t="shared" si="3"/>
         <v>1.0104768231922798</v>
       </c>
       <c r="N14" s="5">
@@ -1401,7 +1401,7 @@
         <v>10361.750571364</v>
       </c>
       <c r="P14" s="10">
-        <f>O14/N14</f>
+        <f t="shared" si="4"/>
         <v>1.0126852725348932</v>
       </c>
       <c r="Q14" s="5">
@@ -1411,19 +1411,19 @@
         <v>181.8999</v>
       </c>
       <c r="S14" s="5">
-        <f>R14/Q14</f>
+        <f t="shared" si="5"/>
         <v>1.0156331658291458</v>
       </c>
       <c r="T14" s="12">
-        <f>D14*M14</f>
+        <f t="shared" si="6"/>
         <v>1.0055220433668288</v>
       </c>
       <c r="U14" s="12">
-        <f>G14*P14</f>
+        <f t="shared" si="7"/>
         <v>0.9967520466985178</v>
       </c>
       <c r="V14" s="12">
-        <f>J14*S14</f>
+        <f t="shared" si="8"/>
         <v>1.0008875384755909</v>
       </c>
       <c r="W14" t="s">
@@ -1441,7 +1441,7 @@
         <v>10914.165000000001</v>
       </c>
       <c r="D15" s="10">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>0.98759802309645039</v>
       </c>
       <c r="E15" s="7">
@@ -1451,7 +1451,7 @@
         <v>10155.367160395001</v>
       </c>
       <c r="G15" s="10">
-        <f>F15/E15</f>
+        <f t="shared" si="1"/>
         <v>0.98008218692895754</v>
       </c>
       <c r="H15" s="7">
@@ -1461,7 +1461,7 @@
         <v>184.05</v>
       </c>
       <c r="J15" s="10">
-        <f>I15/H15</f>
+        <f t="shared" si="2"/>
         <v>0.98659876708657201</v>
       </c>
       <c r="K15" s="5">
@@ -1471,7 +1471,7 @@
         <v>10911.772238</v>
       </c>
       <c r="M15" s="10">
-        <f>L15/K15</f>
+        <f t="shared" si="3"/>
         <v>0.9997807654548011</v>
       </c>
       <c r="N15" s="5">
@@ -1481,7 +1481,7 @@
         <v>10164.2247670003</v>
       </c>
       <c r="P15" s="10">
-        <f>O15/N15</f>
+        <f t="shared" si="4"/>
         <v>1.0008722093908966</v>
       </c>
       <c r="Q15" s="5">
@@ -1491,19 +1491,19 @@
         <v>182.99</v>
       </c>
       <c r="S15" s="10">
-        <f>R15/Q15</f>
+        <f t="shared" si="5"/>
         <v>0.99424069546318938</v>
       </c>
       <c r="T15" s="12">
-        <f>D15*M15</f>
+        <f t="shared" si="6"/>
         <v>0.98738150749301756</v>
       </c>
       <c r="U15" s="12">
-        <f>G15*P15</f>
+        <f t="shared" si="7"/>
         <v>0.98093702381624748</v>
       </c>
       <c r="V15" s="12">
-        <f>J15*S15</f>
+        <f t="shared" si="8"/>
         <v>0.98091664433127856</v>
       </c>
       <c r="W15" t="s">
@@ -1511,28 +1511,84 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
+      <c r="A16" s="9">
+        <v>45072</v>
+      </c>
+      <c r="B16" s="7">
+        <v>10917.6024</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11073.492289999</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0142787660044297</v>
+      </c>
+      <c r="E16" s="7">
+        <v>10164.2247670003</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10206.8286345702</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0041915511066049</v>
+      </c>
+      <c r="H16" s="7">
+        <v>188.04</v>
+      </c>
+      <c r="I16" s="7">
+        <v>191.21899999999999</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="2"/>
+        <v>1.016905977451606</v>
+      </c>
+      <c r="K16" s="5">
+        <v>11073.492289999</v>
+      </c>
+      <c r="L16" s="5">
+        <v>11369.808419999999</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0267590496512664</v>
+      </c>
+      <c r="N16" s="5">
+        <v>10206.8286345702</v>
+      </c>
+      <c r="O16" s="5">
+        <v>10407.8671019294</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="4"/>
+        <v>1.0196964673903008</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>191.21899999999999</v>
+      </c>
+      <c r="R16" s="5">
+        <v>196.09880000000001</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="5"/>
+        <v>1.0255194306005158</v>
+      </c>
+      <c r="T16" s="12">
+        <f t="shared" si="6"/>
+        <v>1.0414199018641674</v>
+      </c>
+      <c r="U16" s="12">
+        <f t="shared" si="7"/>
+        <v>1.0239705772465917</v>
+      </c>
+      <c r="V16" s="12">
+        <f t="shared" si="8"/>
+        <v>1.042856838970432</v>
+      </c>
+      <c r="W16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1820,29 +1876,29 @@
       <c r="S28" s="5"/>
       <c r="T28" s="12">
         <f>PRODUCT(T10:T27)</f>
-        <v>1.0734250741754705</v>
+        <v>1.1178862354063552</v>
       </c>
       <c r="U28" s="12">
-        <f t="shared" ref="U28:V28" si="0">PRODUCT(U10:U27)</f>
-        <v>1.0062533135327183</v>
+        <f t="shared" ref="U28:V28" si="9">PRODUCT(U10:U27)</f>
+        <v>1.0303737863143931</v>
       </c>
       <c r="V28" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0426833262939443</v>
+        <f t="shared" si="9"/>
+        <v>1.0873694377060783</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T29" s="1">
         <f>SUM(T10:T27)-COUNT(T10:T27) + 1</f>
-        <v>1.0723651752827692</v>
+        <v>1.1137850771469369</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" ref="U29:V29" si="1">SUM(U10:U27)-COUNT(U10:U27) + 1</f>
-        <v>1.0065808764161641</v>
+        <f t="shared" ref="U29:V29" si="10">SUM(U10:U27)-COUNT(U10:U27) + 1</f>
+        <v>1.0305514536627562</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0428520330029603</v>
+        <f t="shared" si="10"/>
+        <v>1.0857088719733925</v>
       </c>
     </row>
   </sheetData>

--- a/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
+++ b/finnhub_data/test_sec_macd_rl_trading_daily_results.xlsx
@@ -175,6 +175,1898 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>rl</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$10:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0140902347666054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0160558340114505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0495658541436748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99974970150119236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0055220433668288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98738150749301756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0414199018641674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>macd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$10:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0067538915378562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99921469768553306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0135637408173288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.009359475860681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9967520466985178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98093702381624748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0239705772465917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>buy_and_hold</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$10:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0044437179651067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0128469379111726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0397592357391352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0039979585806762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0008875384755909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98091664433127856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.042856838970432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="162840824"/>
+        <c:axId val="162841608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="162840824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162841608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="162841608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.96000000000000008"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162840824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>rl</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$10:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10307.591200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10472.830400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10992.370199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10989.084959899999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11050.418925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10911.772238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11369.808419999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>macd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$10:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10169.2811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10161.29516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10299.120339999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10395.514717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10361.750571364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10164.2247670003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10407.8671019294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>buy_and_hold</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$10:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10139.4184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10300.6448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10564.9519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10340.579435999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10371.932298000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10155.945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10632.476936000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="106848848"/>
+        <c:axId val="106850416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="106848848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106850416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="106850416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106848848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +2359,7 @@
     <col min="22" max="22" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -500,7 +2392,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="11"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -542,7 +2434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -604,7 +2496,7 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>45057</v>
       </c>
@@ -684,7 +2576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>45058</v>
       </c>
@@ -764,7 +2656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45061</v>
       </c>
@@ -844,7 +2736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45062</v>
       </c>
@@ -924,7 +2816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>45063</v>
       </c>
@@ -1004,7 +2896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +2922,7 @@
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45064</v>
       </c>
@@ -1109,8 +3001,15 @@
       <c r="W10" t="s">
         <v>9</v>
       </c>
+      <c r="X10">
+        <v>57.88</v>
+      </c>
+      <c r="Y10">
+        <f>R10*X10</f>
+        <v>10139.4184</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45065</v>
       </c>
@@ -1189,8 +3088,15 @@
       <c r="W11" t="s">
         <v>9</v>
       </c>
+      <c r="X11">
+        <v>57.43</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" ref="Y11:Y16" si="9">R11*X11</f>
+        <v>10300.6448</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45068</v>
       </c>
@@ -1269,8 +3175,15 @@
       <c r="W12" t="s">
         <v>9</v>
       </c>
+      <c r="X12">
+        <v>56.11</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="9"/>
+        <v>10564.9519</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45069</v>
       </c>
@@ -1349,8 +3262,15 @@
       <c r="W13" t="s">
         <v>9</v>
       </c>
+      <c r="X13">
+        <v>55.33</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="9"/>
+        <v>10340.579435999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45070</v>
       </c>
@@ -1410,7 +3330,7 @@
       <c r="R14" s="5">
         <v>181.8999</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="10">
         <f t="shared" si="5"/>
         <v>1.0156331658291458</v>
       </c>
@@ -1429,8 +3349,15 @@
       <c r="W14" t="s">
         <v>9</v>
       </c>
+      <c r="X14">
+        <v>57.02</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="9"/>
+        <v>10371.932298000002</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45071</v>
       </c>
@@ -1509,8 +3436,15 @@
       <c r="W15" t="s">
         <v>9</v>
       </c>
+      <c r="X15">
+        <v>55.5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="9"/>
+        <v>10155.945</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45072</v>
       </c>
@@ -1588,6 +3522,13 @@
       </c>
       <c r="W16" t="s">
         <v>9</v>
+      </c>
+      <c r="X16">
+        <v>54.22</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="9"/>
+        <v>10632.476936000001</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -1866,25 +3807,34 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="5">
+        <f>L16/L10</f>
+        <v>1.1030519351601757</v>
+      </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="O28" s="5">
+        <f>O16/O10</f>
+        <v>1.023461442316645</v>
+      </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="R28" s="5">
+        <f>R16/R10</f>
+        <v>1.1194131750199794</v>
+      </c>
       <c r="S28" s="5"/>
       <c r="T28" s="12">
-        <f>PRODUCT(T10:T27)</f>
-        <v>1.1178862354063552</v>
+        <f>PRODUCT(T12:T27)</f>
+        <v>1.084934286588954</v>
       </c>
       <c r="U28" s="12">
-        <f t="shared" ref="U28:V28" si="9">PRODUCT(U10:U27)</f>
-        <v>1.0303737863143931</v>
+        <f t="shared" ref="U28:V28" si="10">PRODUCT(U12:U27)</f>
+        <v>1.0242657970648685</v>
       </c>
       <c r="V28" s="12">
-        <f t="shared" si="9"/>
-        <v>1.0873694377060783</v>
+        <f t="shared" si="10"/>
+        <v>1.0688276885370516</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -1893,11 +3843,11 @@
         <v>1.1137850771469369</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" ref="U29:V29" si="10">SUM(U10:U27)-COUNT(U10:U27) + 1</f>
+        <f t="shared" ref="U29:V29" si="11">SUM(U10:U27)-COUNT(U10:U27) + 1</f>
         <v>1.0305514536627562</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0857088719733925</v>
       </c>
     </row>
@@ -1915,5 +3865,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>